--- a/publication/v8.8/Peppol Code Lists - Document types v8.8.xlsx
+++ b/publication/v8.8/Peppol Code Lists - Document types v8.8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45B871-85A7-4D72-B83D-6F2AC92349EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253111BE-14E4-4C40-8BFF-9403C43F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="671">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>TICC-312</t>
+  </si>
+  <si>
+    <t>TICC-328</t>
   </si>
 </sst>
 </file>
@@ -2757,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L249"/>
+  <dimension ref="A1:L253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
@@ -10690,6 +10693,134 @@
         <v>532</v>
       </c>
     </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>661</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E250" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I250" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="24">
+        <v>3</v>
+      </c>
+      <c r="K250" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>662</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D251" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E251" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I251" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="24">
+        <v>3</v>
+      </c>
+      <c r="K251" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L251" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>663</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D252" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I252" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="24">
+        <v>3</v>
+      </c>
+      <c r="K252" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>664</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E253" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I253" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="24">
+        <v>3</v>
+      </c>
+      <c r="K253" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L253" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L245" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/publication/v8.8/Peppol Code Lists - Document types v8.8.xlsx
+++ b/publication/v8.8/Peppol Code Lists - Document types v8.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253111BE-14E4-4C40-8BFF-9403C43F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC481FE9-2EE5-48A1-8E47-A41C5278975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$M$253</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="672">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2101,6 +2101,9 @@
   </si>
   <si>
     <t>TICC-328</t>
+  </si>
+  <si>
+    <t>Abstract?</t>
   </si>
 </sst>
 </file>
@@ -2760,11 +2763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L253"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,14 +2780,15 @@
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="24"/>
-    <col min="11" max="11" width="19.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="81.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="5"/>
+    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="24"/>
+    <col min="12" max="12" width="19.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="81.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -2810,19 +2814,22 @@
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
@@ -2843,20 +2850,23 @@
       </c>
       <c r="G2" s="36"/>
       <c r="I2" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J2" s="34">
-        <v>1</v>
-      </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="34">
+        <v>1</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
@@ -2877,20 +2887,23 @@
       </c>
       <c r="G3" s="36"/>
       <c r="I3" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J3" s="34">
-        <v>1</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="34">
+        <v>1</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="M3" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
@@ -2911,20 +2924,23 @@
       </c>
       <c r="G4" s="36"/>
       <c r="I4" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J4" s="34">
-        <v>1</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="34">
+        <v>1</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>100</v>
       </c>
@@ -2945,20 +2961,23 @@
       </c>
       <c r="G5" s="36"/>
       <c r="I5" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J5" s="34">
-        <v>1</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="37" t="s">
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>103</v>
       </c>
@@ -2979,20 +2998,23 @@
       </c>
       <c r="G6" s="36"/>
       <c r="I6" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J6" s="34">
-        <v>1</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="37" t="s">
+      <c r="K6" s="34">
+        <v>1</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>103</v>
       </c>
@@ -3013,20 +3035,23 @@
       </c>
       <c r="G7" s="36"/>
       <c r="I7" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J7" s="34">
-        <v>1</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="37" t="s">
+      <c r="K7" s="34">
+        <v>1</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>36</v>
       </c>
@@ -3047,20 +3072,23 @@
       </c>
       <c r="G8" s="36"/>
       <c r="I8" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J8" s="34">
-        <v>1</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="34">
+        <v>1</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>28</v>
       </c>
@@ -3081,20 +3109,23 @@
       </c>
       <c r="G9" s="36"/>
       <c r="I9" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J9" s="34">
-        <v>1</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="37" t="s">
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>349</v>
       </c>
@@ -3118,20 +3149,23 @@
         <v>348</v>
       </c>
       <c r="I10" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J10" s="34">
+      <c r="K10" s="34">
         <v>2</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>29</v>
       </c>
@@ -3152,20 +3186,23 @@
       </c>
       <c r="G11" s="36"/>
       <c r="I11" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J11" s="34">
+      <c r="K11" s="34">
         <v>2</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>25</v>
       </c>
@@ -3186,20 +3223,23 @@
       </c>
       <c r="G12" s="36"/>
       <c r="I12" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J12" s="34">
-        <v>1</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="37" t="s">
+      <c r="K12" s="34">
+        <v>1</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
@@ -3220,20 +3260,23 @@
       </c>
       <c r="G13" s="36"/>
       <c r="I13" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J13" s="34">
+      <c r="K13" s="34">
         <v>2</v>
       </c>
-      <c r="K13" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>101</v>
       </c>
@@ -3254,20 +3297,23 @@
       </c>
       <c r="G14" s="36"/>
       <c r="I14" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J14" s="34">
-        <v>1</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="37" t="s">
+      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>102</v>
       </c>
@@ -3288,20 +3334,23 @@
       </c>
       <c r="G15" s="36"/>
       <c r="I15" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J15" s="34">
-        <v>1</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="37" t="s">
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>101</v>
       </c>
@@ -3322,20 +3371,23 @@
       </c>
       <c r="G16" s="36"/>
       <c r="I16" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J16" s="34">
-        <v>1</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="37" t="s">
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>91</v>
       </c>
@@ -3356,20 +3408,23 @@
       </c>
       <c r="G17" s="36"/>
       <c r="I17" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J17" s="34">
+      <c r="K17" s="34">
         <v>2</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>92</v>
       </c>
@@ -3390,20 +3445,23 @@
       </c>
       <c r="G18" s="36"/>
       <c r="I18" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J18" s="34">
+      <c r="K18" s="34">
         <v>2</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>96</v>
       </c>
@@ -3424,20 +3482,23 @@
       </c>
       <c r="G19" s="36"/>
       <c r="I19" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J19" s="34">
-        <v>1</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="37" t="s">
+      <c r="K19" s="34">
+        <v>1</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>97</v>
       </c>
@@ -3458,20 +3519,23 @@
       </c>
       <c r="G20" s="36"/>
       <c r="I20" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J20" s="34">
-        <v>1</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="37" t="s">
+      <c r="K20" s="34">
+        <v>1</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>97</v>
       </c>
@@ -3492,20 +3556,23 @@
       </c>
       <c r="G21" s="36"/>
       <c r="I21" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J21" s="34">
-        <v>1</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="37" t="s">
+      <c r="K21" s="34">
+        <v>1</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>98</v>
       </c>
@@ -3526,20 +3593,23 @@
       </c>
       <c r="G22" s="36"/>
       <c r="I22" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J22" s="34">
-        <v>1</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="37" t="s">
+      <c r="K22" s="34">
+        <v>1</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>99</v>
       </c>
@@ -3560,20 +3630,23 @@
       </c>
       <c r="G23" s="36"/>
       <c r="I23" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J23" s="34">
-        <v>1</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="37" t="s">
+      <c r="K23" s="34">
+        <v>1</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>98</v>
       </c>
@@ -3594,20 +3667,23 @@
       </c>
       <c r="G24" s="36"/>
       <c r="I24" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J24" s="34">
-        <v>1</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="37" t="s">
+      <c r="K24" s="34">
+        <v>1</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>34</v>
       </c>
@@ -3628,18 +3704,21 @@
       </c>
       <c r="G25" s="36"/>
       <c r="I25" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="37" t="s">
+      <c r="K25" s="34"/>
+      <c r="L25" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3656,17 +3735,20 @@
         <v>367</v>
       </c>
       <c r="I26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>94</v>
       </c>
@@ -3687,20 +3769,23 @@
       </c>
       <c r="G27" s="36"/>
       <c r="I27" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J27" s="34">
-        <v>1</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="37" t="s">
+      <c r="K27" s="34">
+        <v>1</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>346</v>
       </c>
@@ -3724,20 +3809,23 @@
         <v>347</v>
       </c>
       <c r="I28" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J28" s="34">
-        <v>1</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="37" t="s">
+      <c r="K28" s="34">
+        <v>1</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>95</v>
       </c>
@@ -3758,20 +3846,23 @@
       </c>
       <c r="G29" s="36"/>
       <c r="I29" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J29" s="34">
-        <v>1</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="37" t="s">
+      <c r="K29" s="34">
+        <v>1</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>39</v>
       </c>
@@ -3792,20 +3883,23 @@
       </c>
       <c r="G30" s="36"/>
       <c r="I30" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J30" s="34">
-        <v>1</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L30" s="37" t="s">
+      <c r="K30" s="34">
+        <v>1</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>40</v>
       </c>
@@ -3826,20 +3920,23 @@
       </c>
       <c r="G31" s="36"/>
       <c r="I31" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J31" s="34">
-        <v>1</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L31" s="37" t="s">
+      <c r="K31" s="34">
+        <v>1</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>469</v>
       </c>
@@ -3856,20 +3953,23 @@
         <v>367</v>
       </c>
       <c r="I32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J32" s="24">
+      <c r="K32" s="24">
         <v>3</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>470</v>
       </c>
@@ -3886,20 +3986,23 @@
         <v>367</v>
       </c>
       <c r="I33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J33" s="24">
+      <c r="K33" s="24">
         <v>3</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -3916,17 +4019,20 @@
         <v>367</v>
       </c>
       <c r="I34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>343</v>
       </c>
@@ -3950,18 +4056,21 @@
         <v>345</v>
       </c>
       <c r="I35" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L35" s="37" t="s">
+      <c r="K35" s="34"/>
+      <c r="L35" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>125</v>
       </c>
@@ -3981,17 +4090,20 @@
         <v>341</v>
       </c>
       <c r="I36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>471</v>
       </c>
@@ -4008,20 +4120,23 @@
         <v>367</v>
       </c>
       <c r="I37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J37" s="24">
+      <c r="K37" s="24">
         <v>3</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>487</v>
       </c>
@@ -4045,20 +4160,23 @@
         <v>537</v>
       </c>
       <c r="I38" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J38" s="34">
-        <v>1</v>
-      </c>
-      <c r="K38" s="34" t="s">
+      <c r="K38" s="34">
+        <v>1</v>
+      </c>
+      <c r="L38" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="M38" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>486</v>
       </c>
@@ -4082,20 +4200,23 @@
         <v>537</v>
       </c>
       <c r="I39" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J39" s="34">
-        <v>1</v>
-      </c>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="34">
+        <v>1</v>
+      </c>
+      <c r="L39" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="M39" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>485</v>
       </c>
@@ -4119,20 +4240,23 @@
         <v>537</v>
       </c>
       <c r="I40" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J40" s="34">
-        <v>1</v>
-      </c>
-      <c r="K40" s="34" t="s">
+      <c r="K40" s="34">
+        <v>1</v>
+      </c>
+      <c r="L40" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="M40" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>484</v>
       </c>
@@ -4156,20 +4280,23 @@
         <v>537</v>
       </c>
       <c r="I41" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J41" s="34">
-        <v>1</v>
-      </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="34">
+        <v>1</v>
+      </c>
+      <c r="L41" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L41" s="37" t="s">
+      <c r="M41" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>483</v>
       </c>
@@ -4193,20 +4320,23 @@
         <v>537</v>
       </c>
       <c r="I42" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J42" s="34">
-        <v>1</v>
-      </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="34">
+        <v>1</v>
+      </c>
+      <c r="L42" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L42" s="37" t="s">
+      <c r="M42" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>482</v>
       </c>
@@ -4230,20 +4360,23 @@
         <v>537</v>
       </c>
       <c r="I43" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J43" s="34">
-        <v>1</v>
-      </c>
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="34">
+        <v>1</v>
+      </c>
+      <c r="L43" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L43" s="37" t="s">
+      <c r="M43" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>104</v>
       </c>
@@ -4269,18 +4402,21 @@
         <v>505</v>
       </c>
       <c r="I44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L44" s="20" t="s">
+      <c r="K44" s="25"/>
+      <c r="L44" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>105</v>
       </c>
@@ -4306,18 +4442,21 @@
         <v>505</v>
       </c>
       <c r="I45" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="20" t="s">
+      <c r="K45" s="25"/>
+      <c r="L45" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>106</v>
       </c>
@@ -4343,18 +4482,21 @@
         <v>505</v>
       </c>
       <c r="I46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="20" t="s">
+      <c r="K46" s="25"/>
+      <c r="L46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -4374,17 +4516,20 @@
         <v>420</v>
       </c>
       <c r="I47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K47" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -4404,17 +4549,20 @@
         <v>420</v>
       </c>
       <c r="I48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K48" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -4434,17 +4582,20 @@
         <v>421</v>
       </c>
       <c r="I49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K49" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -4464,17 +4615,20 @@
         <v>421</v>
       </c>
       <c r="I50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K50" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>459</v>
       </c>
@@ -4495,20 +4649,23 @@
       </c>
       <c r="G51" s="36"/>
       <c r="I51" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J51" s="34">
-        <v>1</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L51" s="37" t="s">
+      <c r="K51" s="34">
+        <v>1</v>
+      </c>
+      <c r="L51" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M51" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>460</v>
       </c>
@@ -4525,20 +4682,23 @@
         <v>367</v>
       </c>
       <c r="I52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J52" s="24">
+      <c r="K52" s="24">
         <v>3</v>
       </c>
-      <c r="K52" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>461</v>
       </c>
@@ -4555,20 +4715,23 @@
         <v>367</v>
       </c>
       <c r="I53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J53" s="24">
+      <c r="K53" s="24">
         <v>3</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>462</v>
       </c>
@@ -4588,20 +4751,23 @@
         <v>495</v>
       </c>
       <c r="I54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J54" s="24">
+      <c r="K54" s="24">
         <v>3</v>
       </c>
-      <c r="K54" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>463</v>
       </c>
@@ -4618,20 +4784,23 @@
         <v>367</v>
       </c>
       <c r="I55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J55" s="24">
+      <c r="K55" s="24">
         <v>3</v>
       </c>
-      <c r="K55" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M55" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>465</v>
       </c>
@@ -4648,20 +4817,23 @@
         <v>367</v>
       </c>
       <c r="I56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J56" s="24">
+      <c r="K56" s="24">
         <v>3</v>
       </c>
-      <c r="K56" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M56" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>464</v>
       </c>
@@ -4678,20 +4850,23 @@
         <v>367</v>
       </c>
       <c r="I57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J57" s="24">
+      <c r="K57" s="24">
         <v>3</v>
       </c>
-      <c r="K57" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L57" s="7" t="s">
+      <c r="L57" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M57" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>466</v>
       </c>
@@ -4708,20 +4883,23 @@
         <v>367</v>
       </c>
       <c r="I58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J58" s="24">
+      <c r="K58" s="24">
         <v>3</v>
       </c>
-      <c r="K58" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M58" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>467</v>
       </c>
@@ -4738,20 +4916,23 @@
         <v>367</v>
       </c>
       <c r="I59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J59" s="24">
+      <c r="K59" s="24">
         <v>3</v>
       </c>
-      <c r="K59" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L59" s="7" t="s">
+      <c r="L59" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>468</v>
       </c>
@@ -4768,20 +4949,23 @@
         <v>367</v>
       </c>
       <c r="I60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J60" s="24">
+      <c r="K60" s="24">
         <v>3</v>
       </c>
-      <c r="K60" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M60" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -4798,17 +4982,20 @@
         <v>367</v>
       </c>
       <c r="I61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K61" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M61" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>81</v>
       </c>
@@ -4825,17 +5012,20 @@
         <v>367</v>
       </c>
       <c r="I62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K62" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M62" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>472</v>
       </c>
@@ -4852,20 +5042,23 @@
         <v>367</v>
       </c>
       <c r="I63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J63" s="24">
+      <c r="K63" s="24">
         <v>3</v>
       </c>
-      <c r="K63" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L63" s="7" t="s">
+      <c r="L63" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>344</v>
       </c>
@@ -4889,20 +5082,23 @@
         <v>418</v>
       </c>
       <c r="I64" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J64" s="34">
+      <c r="K64" s="34">
         <v>3</v>
       </c>
-      <c r="K64" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L64" s="40" t="s">
+      <c r="L64" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M64" s="40" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>473</v>
       </c>
@@ -4922,20 +5118,23 @@
         <v>419</v>
       </c>
       <c r="I65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J65" s="24">
+      <c r="K65" s="24">
         <v>3</v>
       </c>
-      <c r="K65" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L65" s="7" t="s">
+      <c r="L65" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>85</v>
       </c>
@@ -4961,18 +5160,21 @@
         <v>506</v>
       </c>
       <c r="I66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L66" s="20" t="s">
+      <c r="K66" s="25"/>
+      <c r="L66" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M66" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>86</v>
       </c>
@@ -4998,18 +5200,21 @@
         <v>506</v>
       </c>
       <c r="I67" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="20" t="s">
+      <c r="K67" s="25"/>
+      <c r="L67" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M67" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>87</v>
       </c>
@@ -5035,18 +5240,21 @@
         <v>506</v>
       </c>
       <c r="I68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L68" s="20" t="s">
+      <c r="K68" s="25"/>
+      <c r="L68" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M68" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>107</v>
       </c>
@@ -5066,17 +5274,20 @@
         <v>215</v>
       </c>
       <c r="I69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K69" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L69" s="7" t="s">
+      <c r="L69" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>108</v>
       </c>
@@ -5096,17 +5307,20 @@
         <v>216</v>
       </c>
       <c r="I70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K70" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M70" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>112</v>
       </c>
@@ -5126,17 +5340,20 @@
         <v>217</v>
       </c>
       <c r="I71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K71" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>474</v>
       </c>
@@ -5156,20 +5373,23 @@
         <v>214</v>
       </c>
       <c r="I72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J72" s="24">
+      <c r="K72" s="24">
         <v>3</v>
       </c>
-      <c r="K72" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>475</v>
       </c>
@@ -5189,20 +5409,23 @@
         <v>214</v>
       </c>
       <c r="I73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J73" s="24">
+      <c r="K73" s="24">
         <v>3</v>
       </c>
-      <c r="K73" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -5222,17 +5445,20 @@
         <v>250</v>
       </c>
       <c r="I74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K74" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>119</v>
       </c>
@@ -5252,17 +5478,20 @@
         <v>250</v>
       </c>
       <c r="I75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K75" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>161</v>
       </c>
@@ -5288,18 +5517,21 @@
         <v>634</v>
       </c>
       <c r="I76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L76" s="20" t="s">
+      <c r="K76" s="25"/>
+      <c r="L76" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M76" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>164</v>
       </c>
@@ -5325,18 +5557,21 @@
         <v>634</v>
       </c>
       <c r="I77" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L77" s="20" t="s">
+      <c r="K77" s="25"/>
+      <c r="L77" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M77" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>166</v>
       </c>
@@ -5362,18 +5597,21 @@
         <v>507</v>
       </c>
       <c r="I78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L78" s="20" t="s">
+      <c r="K78" s="25"/>
+      <c r="L78" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M78" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>167</v>
       </c>
@@ -5399,18 +5637,21 @@
         <v>507</v>
       </c>
       <c r="I79" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L79" s="20" t="s">
+      <c r="K79" s="25"/>
+      <c r="L79" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M79" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>168</v>
       </c>
@@ -5436,18 +5677,21 @@
         <v>507</v>
       </c>
       <c r="I80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L80" s="20" t="s">
+      <c r="K80" s="25"/>
+      <c r="L80" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M80" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>171</v>
       </c>
@@ -5467,17 +5711,20 @@
         <v>213</v>
       </c>
       <c r="I81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K81" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L81" s="7" t="s">
+      <c r="L81" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>172</v>
       </c>
@@ -5497,17 +5744,20 @@
         <v>213</v>
       </c>
       <c r="I82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K82" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L82" s="7" t="s">
+      <c r="L82" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M82" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>241</v>
       </c>
@@ -5533,18 +5783,21 @@
         <v>508</v>
       </c>
       <c r="I83" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L83" s="20" t="s">
+      <c r="K83" s="25"/>
+      <c r="L83" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M83" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>173</v>
       </c>
@@ -5564,17 +5817,20 @@
         <v>244</v>
       </c>
       <c r="I84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K84" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L84" s="7" t="s">
+      <c r="L84" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M84" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>176</v>
       </c>
@@ -5600,18 +5856,21 @@
         <v>510</v>
       </c>
       <c r="I85" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L85" s="20" t="s">
+      <c r="K85" s="25"/>
+      <c r="L85" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M85" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>177</v>
       </c>
@@ -5637,18 +5896,21 @@
         <v>509</v>
       </c>
       <c r="I86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L86" s="20" t="s">
+      <c r="K86" s="25"/>
+      <c r="L86" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M86" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>178</v>
       </c>
@@ -5674,18 +5936,21 @@
         <v>509</v>
       </c>
       <c r="I87" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L87" s="20" t="s">
+      <c r="K87" s="25"/>
+      <c r="L87" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M87" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>183</v>
       </c>
@@ -5705,17 +5970,20 @@
         <v>212</v>
       </c>
       <c r="I88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K88" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L88" s="7" t="s">
+      <c r="L88" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M88" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>232</v>
       </c>
@@ -5739,18 +6007,21 @@
         <v>211</v>
       </c>
       <c r="I89" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L89" s="37" t="s">
+      <c r="K89" s="34"/>
+      <c r="L89" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M89" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>233</v>
       </c>
@@ -5774,18 +6045,21 @@
         <v>211</v>
       </c>
       <c r="I90" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L90" s="37" t="s">
+      <c r="K90" s="34"/>
+      <c r="L90" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M90" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>234</v>
       </c>
@@ -5809,18 +6083,21 @@
         <v>211</v>
       </c>
       <c r="I91" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L91" s="37" t="s">
+      <c r="K91" s="34"/>
+      <c r="L91" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M91" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>235</v>
       </c>
@@ -5844,18 +6121,21 @@
         <v>211</v>
       </c>
       <c r="I92" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L92" s="37" t="s">
+      <c r="K92" s="34"/>
+      <c r="L92" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M92" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>195</v>
       </c>
@@ -5875,17 +6155,20 @@
         <v>210</v>
       </c>
       <c r="I93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K93" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L93" s="5" t="s">
+      <c r="L93" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M93" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>196</v>
       </c>
@@ -5905,17 +6188,20 @@
         <v>210</v>
       </c>
       <c r="I94" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K94" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L94" s="5" t="s">
+      <c r="L94" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M94" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>197</v>
       </c>
@@ -5935,17 +6221,20 @@
         <v>210</v>
       </c>
       <c r="I95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K95" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L95" s="5" t="s">
+      <c r="L95" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M95" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>202</v>
       </c>
@@ -5965,17 +6254,20 @@
         <v>209</v>
       </c>
       <c r="I96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K96" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L96" s="7" t="s">
+      <c r="L96" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M96" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>203</v>
       </c>
@@ -5995,17 +6287,20 @@
         <v>209</v>
       </c>
       <c r="I97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K97" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L97" s="7" t="s">
+      <c r="L97" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M97" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>245</v>
       </c>
@@ -6031,18 +6326,21 @@
         <v>510</v>
       </c>
       <c r="I98" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L98" s="20" t="s">
+      <c r="K98" s="25"/>
+      <c r="L98" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M98" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>204</v>
       </c>
@@ -6062,17 +6360,20 @@
         <v>244</v>
       </c>
       <c r="I99" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K99" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L99" s="7" t="s">
+      <c r="L99" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M99" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>221</v>
       </c>
@@ -6092,17 +6393,20 @@
         <v>249</v>
       </c>
       <c r="I100" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K100" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L100" s="5" t="s">
+      <c r="L100" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M100" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>222</v>
       </c>
@@ -6122,17 +6426,20 @@
         <v>218</v>
       </c>
       <c r="I101" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K101" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L101" s="7" t="s">
+      <c r="L101" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M101" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>223</v>
       </c>
@@ -6152,17 +6459,20 @@
         <v>225</v>
       </c>
       <c r="I102" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K102" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M102" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>231</v>
       </c>
@@ -6188,16 +6498,19 @@
         <v>660</v>
       </c>
       <c r="I103" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J103" s="25"/>
       <c r="K103" s="25"/>
-      <c r="L103" s="20" t="s">
+      <c r="L103" s="25"/>
+      <c r="M103" s="20" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>184</v>
       </c>
@@ -6217,17 +6530,20 @@
         <v>240</v>
       </c>
       <c r="I104" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K104" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L104" s="5" t="s">
+      <c r="L104" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M104" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>185</v>
       </c>
@@ -6247,17 +6563,20 @@
         <v>240</v>
       </c>
       <c r="I105" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K105" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L105" s="5" t="s">
+      <c r="L105" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M105" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>186</v>
       </c>
@@ -6277,17 +6596,20 @@
         <v>240</v>
       </c>
       <c r="I106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K106" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L106" s="5" t="s">
+      <c r="L106" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M106" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>187</v>
       </c>
@@ -6307,17 +6629,20 @@
         <v>240</v>
       </c>
       <c r="I107" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K107" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L107" s="5" t="s">
+      <c r="L107" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M107" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>251</v>
       </c>
@@ -6337,17 +6662,20 @@
         <v>296</v>
       </c>
       <c r="I108" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K108" s="26" t="s">
+      <c r="L108" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L108" s="5" t="s">
+      <c r="M108" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>252</v>
       </c>
@@ -6367,17 +6695,20 @@
         <v>296</v>
       </c>
       <c r="I109" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K109" s="26" t="s">
+      <c r="L109" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L109" s="5" t="s">
+      <c r="M109" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>253</v>
       </c>
@@ -6397,17 +6728,20 @@
         <v>296</v>
       </c>
       <c r="I110" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K110" s="26" t="s">
+      <c r="L110" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L110" s="5" t="s">
+      <c r="M110" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>254</v>
       </c>
@@ -6427,17 +6761,20 @@
         <v>296</v>
       </c>
       <c r="I111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K111" s="26" t="s">
+      <c r="L111" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L111" s="5" t="s">
+      <c r="M111" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>255</v>
       </c>
@@ -6457,17 +6794,20 @@
         <v>296</v>
       </c>
       <c r="I112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K112" s="26" t="s">
+      <c r="L112" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L112" s="5" t="s">
+      <c r="M112" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>256</v>
       </c>
@@ -6487,17 +6827,20 @@
         <v>296</v>
       </c>
       <c r="I113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K113" s="26" t="s">
+      <c r="L113" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="5" t="s">
+      <c r="M113" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>257</v>
       </c>
@@ -6517,17 +6860,20 @@
         <v>296</v>
       </c>
       <c r="I114" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K114" s="26" t="s">
+      <c r="L114" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L114" s="5" t="s">
+      <c r="M114" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>258</v>
       </c>
@@ -6547,17 +6893,20 @@
         <v>296</v>
       </c>
       <c r="I115" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K115" s="26" t="s">
+      <c r="L115" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L115" s="5" t="s">
+      <c r="M115" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>259</v>
       </c>
@@ -6577,17 +6926,20 @@
         <v>296</v>
       </c>
       <c r="I116" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K116" s="26" t="s">
+      <c r="L116" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L116" s="5" t="s">
+      <c r="M116" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>260</v>
       </c>
@@ -6607,17 +6959,20 @@
         <v>296</v>
       </c>
       <c r="I117" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K117" s="26" t="s">
+      <c r="L117" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L117" s="5" t="s">
+      <c r="M117" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>261</v>
       </c>
@@ -6637,17 +6992,20 @@
         <v>296</v>
       </c>
       <c r="I118" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K118" s="26" t="s">
+      <c r="L118" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L118" s="5" t="s">
+      <c r="M118" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>262</v>
       </c>
@@ -6667,17 +7025,20 @@
         <v>296</v>
       </c>
       <c r="I119" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K119" s="26" t="s">
+      <c r="L119" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L119" s="5" t="s">
+      <c r="M119" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>263</v>
       </c>
@@ -6697,17 +7058,20 @@
         <v>296</v>
       </c>
       <c r="I120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K120" s="26" t="s">
+      <c r="L120" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L120" s="5" t="s">
+      <c r="M120" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>264</v>
       </c>
@@ -6727,17 +7091,20 @@
         <v>296</v>
       </c>
       <c r="I121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K121" s="26" t="s">
+      <c r="L121" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L121" s="5" t="s">
+      <c r="M121" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>265</v>
       </c>
@@ -6757,17 +7124,20 @@
         <v>296</v>
       </c>
       <c r="I122" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K122" s="26" t="s">
+      <c r="L122" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L122" s="5" t="s">
+      <c r="M122" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>266</v>
       </c>
@@ -6787,17 +7157,20 @@
         <v>296</v>
       </c>
       <c r="I123" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K123" s="26" t="s">
+      <c r="L123" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L123" s="5" t="s">
+      <c r="M123" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>267</v>
       </c>
@@ -6817,17 +7190,20 @@
         <v>296</v>
       </c>
       <c r="I124" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K124" s="26" t="s">
+      <c r="L124" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L124" s="5" t="s">
+      <c r="M124" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>268</v>
       </c>
@@ -6847,17 +7223,20 @@
         <v>296</v>
       </c>
       <c r="I125" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K125" s="26" t="s">
+      <c r="L125" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L125" s="5" t="s">
+      <c r="M125" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>269</v>
       </c>
@@ -6877,17 +7256,20 @@
         <v>296</v>
       </c>
       <c r="I126" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K126" s="26" t="s">
+      <c r="L126" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L126" s="5" t="s">
+      <c r="M126" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>270</v>
       </c>
@@ -6907,17 +7289,20 @@
         <v>296</v>
       </c>
       <c r="I127" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K127" s="26" t="s">
+      <c r="L127" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L127" s="5" t="s">
+      <c r="M127" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>271</v>
       </c>
@@ -6937,17 +7322,20 @@
         <v>296</v>
       </c>
       <c r="I128" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K128" s="26" t="s">
+      <c r="L128" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L128" s="5" t="s">
+      <c r="M128" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>272</v>
       </c>
@@ -6967,17 +7355,20 @@
         <v>296</v>
       </c>
       <c r="I129" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K129" s="26" t="s">
+      <c r="L129" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L129" s="5" t="s">
+      <c r="M129" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>476</v>
       </c>
@@ -6997,19 +7388,22 @@
         <v>302</v>
       </c>
       <c r="I130" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" s="24">
-        <v>1</v>
-      </c>
-      <c r="K130" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" s="24">
+        <v>1</v>
+      </c>
+      <c r="L130" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L130" s="5" t="s">
+      <c r="M130" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>477</v>
       </c>
@@ -7029,19 +7423,22 @@
         <v>302</v>
       </c>
       <c r="I131" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" s="24">
-        <v>1</v>
-      </c>
-      <c r="K131" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" s="24">
+        <v>1</v>
+      </c>
+      <c r="L131" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L131" s="5" t="s">
+      <c r="M131" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>478</v>
       </c>
@@ -7061,19 +7458,22 @@
         <v>302</v>
       </c>
       <c r="I132" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" s="24">
-        <v>1</v>
-      </c>
-      <c r="K132" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" s="24">
+        <v>1</v>
+      </c>
+      <c r="L132" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L132" s="5" t="s">
+      <c r="M132" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>479</v>
       </c>
@@ -7093,19 +7493,22 @@
         <v>302</v>
       </c>
       <c r="I133" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" s="24">
-        <v>1</v>
-      </c>
-      <c r="K133" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="24">
+        <v>1</v>
+      </c>
+      <c r="L133" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L133" s="5" t="s">
+      <c r="M133" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>305</v>
       </c>
@@ -7127,14 +7530,17 @@
       <c r="I134" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K134" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L134" s="5" t="s">
+      <c r="J134" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M134" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>306</v>
       </c>
@@ -7156,14 +7562,17 @@
       <c r="I135" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K135" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L135" s="5" t="s">
+      <c r="J135" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M135" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>307</v>
       </c>
@@ -7185,14 +7594,17 @@
       <c r="I136" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K136" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L136" s="5" t="s">
+      <c r="J136" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M136" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>308</v>
       </c>
@@ -7214,14 +7626,17 @@
       <c r="I137" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K137" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L137" s="5" t="s">
+      <c r="J137" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M137" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>309</v>
       </c>
@@ -7243,14 +7658,17 @@
       <c r="I138" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K138" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L138" s="5" t="s">
+      <c r="J138" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M138" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>310</v>
       </c>
@@ -7272,14 +7690,17 @@
       <c r="I139" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K139" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L139" s="5" t="s">
+      <c r="J139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M139" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>311</v>
       </c>
@@ -7301,14 +7722,17 @@
       <c r="I140" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K140" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L140" s="5" t="s">
+      <c r="J140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M140" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>312</v>
       </c>
@@ -7330,14 +7754,17 @@
       <c r="I141" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L141" s="5" t="s">
+      <c r="J141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M141" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>313</v>
       </c>
@@ -7359,14 +7786,17 @@
       <c r="I142" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L142" s="5" t="s">
+      <c r="J142" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M142" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>314</v>
       </c>
@@ -7388,14 +7818,17 @@
       <c r="I143" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L143" s="5" t="s">
+      <c r="J143" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M143" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>315</v>
       </c>
@@ -7417,14 +7850,17 @@
       <c r="I144" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L144" s="5" t="s">
+      <c r="J144" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M144" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>316</v>
       </c>
@@ -7446,14 +7882,17 @@
       <c r="I145" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K145" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L145" s="5" t="s">
+      <c r="J145" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M145" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>317</v>
       </c>
@@ -7475,14 +7914,17 @@
       <c r="I146" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L146" s="5" t="s">
+      <c r="J146" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M146" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>318</v>
       </c>
@@ -7504,14 +7946,17 @@
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L147" s="5" t="s">
+      <c r="J147" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M147" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>350</v>
       </c>
@@ -7533,14 +7978,17 @@
       <c r="I148" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K148" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L148" s="7" t="s">
+      <c r="J148" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M148" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>351</v>
       </c>
@@ -7562,14 +8010,17 @@
       <c r="I149" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L149" s="7" t="s">
+      <c r="J149" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M149" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>352</v>
       </c>
@@ -7591,14 +8042,17 @@
       <c r="I150" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L150" s="7" t="s">
+      <c r="J150" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M150" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>357</v>
       </c>
@@ -7620,14 +8074,17 @@
       <c r="I151" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K151" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L151" s="7" t="s">
+      <c r="J151" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M151" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>358</v>
       </c>
@@ -7649,14 +8106,17 @@
       <c r="I152" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L152" s="7" t="s">
+      <c r="J152" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M152" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>359</v>
       </c>
@@ -7678,14 +8138,17 @@
       <c r="I153" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K153" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L153" s="7" t="s">
+      <c r="J153" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M153" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>375</v>
       </c>
@@ -7707,14 +8170,17 @@
       <c r="I154" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L154" s="5" t="s">
+      <c r="J154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M154" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>376</v>
       </c>
@@ -7736,14 +8202,17 @@
       <c r="I155" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L155" s="5" t="s">
+      <c r="J155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M155" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>377</v>
       </c>
@@ -7765,14 +8234,17 @@
       <c r="I156" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L156" s="5" t="s">
+      <c r="J156" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M156" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>389</v>
       </c>
@@ -7792,19 +8264,22 @@
         <v>388</v>
       </c>
       <c r="I157" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" s="24">
-        <v>1</v>
-      </c>
-      <c r="K157" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J157" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" s="24">
+        <v>1</v>
+      </c>
+      <c r="L157" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L157" s="5" t="s">
+      <c r="M157" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>390</v>
       </c>
@@ -7824,19 +8299,22 @@
         <v>388</v>
       </c>
       <c r="I158" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" s="24">
-        <v>1</v>
-      </c>
-      <c r="K158" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" s="24">
+        <v>1</v>
+      </c>
+      <c r="L158" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L158" s="5" t="s">
+      <c r="M158" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>391</v>
       </c>
@@ -7856,19 +8334,22 @@
         <v>388</v>
       </c>
       <c r="I159" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" s="24">
-        <v>1</v>
-      </c>
-      <c r="K159" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J159" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K159" s="24">
+        <v>1</v>
+      </c>
+      <c r="L159" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L159" s="5" t="s">
+      <c r="M159" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>392</v>
       </c>
@@ -7888,19 +8369,22 @@
         <v>388</v>
       </c>
       <c r="I160" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" s="24">
-        <v>1</v>
-      </c>
-      <c r="K160" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" s="24">
+        <v>1</v>
+      </c>
+      <c r="L160" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L160" s="5" t="s">
+      <c r="M160" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>393</v>
       </c>
@@ -7920,19 +8404,22 @@
         <v>388</v>
       </c>
       <c r="I161" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" s="24">
-        <v>1</v>
-      </c>
-      <c r="K161" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J161" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K161" s="24">
+        <v>1</v>
+      </c>
+      <c r="L161" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L161" s="5" t="s">
+      <c r="M161" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>394</v>
       </c>
@@ -7952,19 +8439,22 @@
         <v>388</v>
       </c>
       <c r="I162" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" s="24">
-        <v>1</v>
-      </c>
-      <c r="K162" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" s="24">
+        <v>1</v>
+      </c>
+      <c r="L162" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L162" s="5" t="s">
+      <c r="M162" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>395</v>
       </c>
@@ -7984,19 +8474,22 @@
         <v>388</v>
       </c>
       <c r="I163" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" s="24">
-        <v>1</v>
-      </c>
-      <c r="K163" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K163" s="24">
+        <v>1</v>
+      </c>
+      <c r="L163" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L163" s="5" t="s">
+      <c r="M163" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>396</v>
       </c>
@@ -8016,19 +8509,22 @@
         <v>388</v>
       </c>
       <c r="I164" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J164" s="24">
-        <v>1</v>
-      </c>
-      <c r="K164" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" s="24">
+        <v>1</v>
+      </c>
+      <c r="L164" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L164" s="5" t="s">
+      <c r="M164" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>397</v>
       </c>
@@ -8048,19 +8544,22 @@
         <v>388</v>
       </c>
       <c r="I165" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" s="24">
-        <v>1</v>
-      </c>
-      <c r="K165" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J165" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K165" s="24">
+        <v>1</v>
+      </c>
+      <c r="L165" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L165" s="5" t="s">
+      <c r="M165" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>398</v>
       </c>
@@ -8080,19 +8579,22 @@
         <v>388</v>
       </c>
       <c r="I166" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" s="24">
-        <v>1</v>
-      </c>
-      <c r="K166" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J166" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K166" s="24">
+        <v>1</v>
+      </c>
+      <c r="L166" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L166" s="5" t="s">
+      <c r="M166" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>399</v>
       </c>
@@ -8112,19 +8614,22 @@
         <v>388</v>
       </c>
       <c r="I167" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J167" s="24">
-        <v>1</v>
-      </c>
-      <c r="K167" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K167" s="24">
+        <v>1</v>
+      </c>
+      <c r="L167" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L167" s="5" t="s">
+      <c r="M167" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>400</v>
       </c>
@@ -8144,19 +8649,22 @@
         <v>388</v>
       </c>
       <c r="I168" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" s="24">
-        <v>1</v>
-      </c>
-      <c r="K168" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J168" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" s="24">
+        <v>1</v>
+      </c>
+      <c r="L168" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L168" s="5" t="s">
+      <c r="M168" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>401</v>
       </c>
@@ -8176,19 +8684,22 @@
         <v>388</v>
       </c>
       <c r="I169" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="24">
-        <v>1</v>
-      </c>
-      <c r="K169" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" s="24">
+        <v>1</v>
+      </c>
+      <c r="L169" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L169" s="5" t="s">
+      <c r="M169" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>402</v>
       </c>
@@ -8208,19 +8719,22 @@
         <v>388</v>
       </c>
       <c r="I170" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" s="24">
-        <v>1</v>
-      </c>
-      <c r="K170" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K170" s="24">
+        <v>1</v>
+      </c>
+      <c r="L170" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L170" s="5" t="s">
+      <c r="M170" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>405</v>
       </c>
@@ -8240,19 +8754,22 @@
         <v>388</v>
       </c>
       <c r="I171" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" s="24">
-        <v>1</v>
-      </c>
-      <c r="K171" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K171" s="24">
+        <v>1</v>
+      </c>
+      <c r="L171" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L171" s="5" t="s">
+      <c r="M171" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>404</v>
       </c>
@@ -8272,19 +8789,22 @@
         <v>388</v>
       </c>
       <c r="I172" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="24">
-        <v>1</v>
-      </c>
-      <c r="K172" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J172" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K172" s="24">
+        <v>1</v>
+      </c>
+      <c r="L172" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L172" s="5" t="s">
+      <c r="M172" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
         <v>567</v>
       </c>
@@ -8308,19 +8828,22 @@
         <v>576</v>
       </c>
       <c r="I173" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" s="34">
-        <v>1</v>
-      </c>
-      <c r="K173" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" s="34">
+        <v>1</v>
+      </c>
+      <c r="L173" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L173" s="37" t="s">
+      <c r="M173" s="37" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>403</v>
       </c>
@@ -8340,19 +8863,22 @@
         <v>563</v>
       </c>
       <c r="I174" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" s="24">
-        <v>1</v>
-      </c>
-      <c r="K174" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J174" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" s="24">
+        <v>1</v>
+      </c>
+      <c r="L174" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L174" s="5" t="s">
+      <c r="M174" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>427</v>
       </c>
@@ -8374,14 +8900,17 @@
       <c r="I175" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K175" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L175" s="7" t="s">
+      <c r="J175" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M175" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>428</v>
       </c>
@@ -8403,14 +8932,17 @@
       <c r="I176" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K176" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L176" s="7" t="s">
+      <c r="J176" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M176" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>429</v>
       </c>
@@ -8432,14 +8964,17 @@
       <c r="I177" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L177" s="7" t="s">
+      <c r="J177" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M177" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>430</v>
       </c>
@@ -8461,14 +8996,17 @@
       <c r="I178" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L178" s="7" t="s">
+      <c r="J178" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M178" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>431</v>
       </c>
@@ -8490,14 +9028,17 @@
       <c r="I179" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K179" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L179" s="7" t="s">
+      <c r="J179" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M179" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>432</v>
       </c>
@@ -8519,14 +9060,17 @@
       <c r="I180" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K180" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L180" s="7" t="s">
+      <c r="J180" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M180" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="37" t="s">
         <v>480</v>
       </c>
@@ -8550,17 +9094,20 @@
         <v>612</v>
       </c>
       <c r="I181" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" s="34"/>
-      <c r="K181" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="34"/>
+      <c r="L181" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="L181" s="37" t="s">
+      <c r="M181" s="37" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="182" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
         <v>481</v>
       </c>
@@ -8584,17 +9131,20 @@
         <v>612</v>
       </c>
       <c r="I182" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" s="34"/>
-      <c r="K182" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J182" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K182" s="34"/>
+      <c r="L182" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="L182" s="37" t="s">
+      <c r="M182" s="37" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>577</v>
       </c>
@@ -8614,19 +9164,22 @@
         <v>580</v>
       </c>
       <c r="I183" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" s="24">
-        <v>1</v>
-      </c>
-      <c r="K183" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J183" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" s="24">
+        <v>1</v>
+      </c>
+      <c r="L183" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L183" s="15" t="s">
+      <c r="M183" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>578</v>
       </c>
@@ -8646,19 +9199,22 @@
         <v>580</v>
       </c>
       <c r="I184" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" s="24">
-        <v>1</v>
-      </c>
-      <c r="K184" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" s="24">
+        <v>1</v>
+      </c>
+      <c r="L184" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L184" s="14" t="s">
+      <c r="M184" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>579</v>
       </c>
@@ -8678,19 +9234,22 @@
         <v>580</v>
       </c>
       <c r="I185" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" s="24">
-        <v>1</v>
-      </c>
-      <c r="K185" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J185" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" s="24">
+        <v>1</v>
+      </c>
+      <c r="L185" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L185" s="14" t="s">
+      <c r="M185" s="14" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>454</v>
       </c>
@@ -8712,14 +9271,17 @@
       <c r="I186" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K186" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L186" s="5" t="s">
+      <c r="J186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M186" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>488</v>
       </c>
@@ -8741,14 +9303,17 @@
       <c r="I187" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K187" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L187" s="5" t="s">
+      <c r="J187" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M187" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>491</v>
       </c>
@@ -8768,20 +9333,23 @@
         <v>492</v>
       </c>
       <c r="I188" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J188" s="24">
+      <c r="K188" s="24">
         <v>3</v>
       </c>
-      <c r="K188" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L188" s="7" t="s">
+      <c r="L188" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M188" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>500</v>
       </c>
@@ -8801,19 +9369,22 @@
         <v>495</v>
       </c>
       <c r="I189" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" s="24">
+        <v>0</v>
+      </c>
+      <c r="J189" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" s="24">
         <v>3</v>
       </c>
-      <c r="K189" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L189" s="5" t="s">
+      <c r="L189" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M189" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>501</v>
       </c>
@@ -8833,19 +9404,22 @@
         <v>495</v>
       </c>
       <c r="I190" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" s="24">
+        <v>0</v>
+      </c>
+      <c r="J190" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" s="24">
         <v>3</v>
       </c>
-      <c r="K190" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L190" s="5" t="s">
+      <c r="L190" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M190" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>502</v>
       </c>
@@ -8865,19 +9439,22 @@
         <v>495</v>
       </c>
       <c r="I191" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J191" s="24">
+        <v>0</v>
+      </c>
+      <c r="J191" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K191" s="24">
         <v>3</v>
       </c>
-      <c r="K191" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L191" s="5" t="s">
+      <c r="L191" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M191" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>516</v>
       </c>
@@ -8899,14 +9476,17 @@
       <c r="I192" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K192" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L192" s="7" t="s">
+      <c r="J192" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M192" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>517</v>
       </c>
@@ -8928,14 +9508,17 @@
       <c r="I193" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K193" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L193" s="7" t="s">
+      <c r="J193" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M193" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>518</v>
       </c>
@@ -8957,14 +9540,17 @@
       <c r="I194" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K194" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L194" s="7" t="s">
+      <c r="J194" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M194" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>519</v>
       </c>
@@ -8986,14 +9572,17 @@
       <c r="I195" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K195" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L195" s="7" t="s">
+      <c r="J195" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M195" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>520</v>
       </c>
@@ -9015,14 +9604,17 @@
       <c r="I196" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K196" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L196" s="7" t="s">
+      <c r="J196" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M196" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>521</v>
       </c>
@@ -9044,14 +9636,17 @@
       <c r="I197" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K197" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L197" s="7" t="s">
+      <c r="J197" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M197" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>528</v>
       </c>
@@ -9071,20 +9666,23 @@
         <v>531</v>
       </c>
       <c r="I198" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J198" s="24">
+      <c r="K198" s="24">
         <v>3</v>
       </c>
-      <c r="K198" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L198" s="7" t="s">
+      <c r="L198" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M198" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>533</v>
       </c>
@@ -9104,20 +9702,23 @@
         <v>537</v>
       </c>
       <c r="I199" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J199" s="24">
-        <v>1</v>
-      </c>
-      <c r="K199" s="24" t="s">
+      <c r="K199" s="24">
+        <v>1</v>
+      </c>
+      <c r="L199" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L199" s="5" t="s">
+      <c r="M199" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>534</v>
       </c>
@@ -9137,20 +9738,23 @@
         <v>537</v>
       </c>
       <c r="I200" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J200" s="24">
-        <v>1</v>
-      </c>
-      <c r="K200" s="24" t="s">
+      <c r="K200" s="24">
+        <v>1</v>
+      </c>
+      <c r="L200" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L200" s="5" t="s">
+      <c r="M200" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>538</v>
       </c>
@@ -9170,20 +9774,23 @@
         <v>537</v>
       </c>
       <c r="I201" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J201" s="24">
-        <v>1</v>
-      </c>
-      <c r="K201" s="24" t="s">
+      <c r="K201" s="24">
+        <v>1</v>
+      </c>
+      <c r="L201" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L201" s="5" t="s">
+      <c r="M201" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>539</v>
       </c>
@@ -9203,20 +9810,23 @@
         <v>537</v>
       </c>
       <c r="I202" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J202" s="24">
-        <v>1</v>
-      </c>
-      <c r="K202" s="24" t="s">
+      <c r="K202" s="24">
+        <v>1</v>
+      </c>
+      <c r="L202" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L202" s="5" t="s">
+      <c r="M202" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>543</v>
       </c>
@@ -9236,19 +9846,22 @@
         <v>537</v>
       </c>
       <c r="I203" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" s="24">
-        <v>1</v>
-      </c>
-      <c r="K203" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J203" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K203" s="24">
+        <v>1</v>
+      </c>
+      <c r="L203" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L203" s="5" t="s">
+      <c r="M203" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>544</v>
       </c>
@@ -9268,19 +9881,22 @@
         <v>537</v>
       </c>
       <c r="I204" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="24">
-        <v>1</v>
-      </c>
-      <c r="K204" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J204" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" s="24">
+        <v>1</v>
+      </c>
+      <c r="L204" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L204" s="5" t="s">
+      <c r="M204" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>548</v>
       </c>
@@ -9300,19 +9916,22 @@
         <v>537</v>
       </c>
       <c r="I205" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="24">
-        <v>1</v>
-      </c>
-      <c r="K205" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J205" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K205" s="24">
+        <v>1</v>
+      </c>
+      <c r="L205" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L205" s="5" t="s">
+      <c r="M205" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>549</v>
       </c>
@@ -9332,19 +9951,22 @@
         <v>537</v>
       </c>
       <c r="I206" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="24">
-        <v>1</v>
-      </c>
-      <c r="K206" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J206" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K206" s="24">
+        <v>1</v>
+      </c>
+      <c r="L206" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L206" s="5" t="s">
+      <c r="M206" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>554</v>
       </c>
@@ -9364,19 +9986,22 @@
         <v>537</v>
       </c>
       <c r="I207" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="24">
-        <v>1</v>
-      </c>
-      <c r="K207" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J207" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K207" s="24">
+        <v>1</v>
+      </c>
+      <c r="L207" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L207" s="5" t="s">
+      <c r="M207" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>553</v>
       </c>
@@ -9396,19 +10021,22 @@
         <v>537</v>
       </c>
       <c r="I208" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="24">
-        <v>1</v>
-      </c>
-      <c r="K208" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J208" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K208" s="24">
+        <v>1</v>
+      </c>
+      <c r="L208" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L208" s="5" t="s">
+      <c r="M208" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>558</v>
       </c>
@@ -9428,19 +10056,22 @@
         <v>537</v>
       </c>
       <c r="I209" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" s="24">
-        <v>1</v>
-      </c>
-      <c r="K209" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J209" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K209" s="24">
+        <v>1</v>
+      </c>
+      <c r="L209" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L209" s="5" t="s">
+      <c r="M209" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>559</v>
       </c>
@@ -9460,19 +10091,22 @@
         <v>537</v>
       </c>
       <c r="I210" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" s="24">
-        <v>1</v>
-      </c>
-      <c r="K210" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J210" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K210" s="24">
+        <v>1</v>
+      </c>
+      <c r="L210" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L210" s="5" t="s">
+      <c r="M210" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>569</v>
       </c>
@@ -9492,19 +10126,22 @@
         <v>537</v>
       </c>
       <c r="I211" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" s="24">
-        <v>1</v>
-      </c>
-      <c r="K211" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J211" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K211" s="24">
+        <v>1</v>
+      </c>
+      <c r="L211" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L211" s="5" t="s">
+      <c r="M211" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>571</v>
       </c>
@@ -9524,19 +10161,22 @@
         <v>537</v>
       </c>
       <c r="I212" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="24">
-        <v>1</v>
-      </c>
-      <c r="K212" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J212" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K212" s="24">
+        <v>1</v>
+      </c>
+      <c r="L212" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L212" s="5" t="s">
+      <c r="M212" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>572</v>
       </c>
@@ -9556,19 +10196,22 @@
         <v>537</v>
       </c>
       <c r="I213" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="24">
-        <v>1</v>
-      </c>
-      <c r="K213" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J213" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K213" s="24">
+        <v>1</v>
+      </c>
+      <c r="L213" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L213" s="5" t="s">
+      <c r="M213" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>581</v>
       </c>
@@ -9588,19 +10231,22 @@
         <v>593</v>
       </c>
       <c r="I214" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="24">
-        <v>1</v>
-      </c>
-      <c r="K214" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J214" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K214" s="24">
+        <v>1</v>
+      </c>
+      <c r="L214" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L214" s="43" t="s">
+      <c r="M214" s="43" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>582</v>
       </c>
@@ -9620,19 +10266,22 @@
         <v>593</v>
       </c>
       <c r="I215" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="24">
-        <v>1</v>
-      </c>
-      <c r="K215" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J215" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K215" s="24">
+        <v>1</v>
+      </c>
+      <c r="L215" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L215" s="43" t="s">
+      <c r="M215" s="43" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>583</v>
       </c>
@@ -9652,19 +10301,22 @@
         <v>593</v>
       </c>
       <c r="I216" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="24">
-        <v>1</v>
-      </c>
-      <c r="K216" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J216" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K216" s="24">
+        <v>1</v>
+      </c>
+      <c r="L216" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L216" s="43" t="s">
+      <c r="M216" s="43" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>584</v>
       </c>
@@ -9684,19 +10336,22 @@
         <v>593</v>
       </c>
       <c r="I217" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="24">
-        <v>1</v>
-      </c>
-      <c r="K217" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J217" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K217" s="24">
+        <v>1</v>
+      </c>
+      <c r="L217" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L217" s="43" t="s">
+      <c r="M217" s="43" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>585</v>
       </c>
@@ -9716,19 +10371,22 @@
         <v>593</v>
       </c>
       <c r="I218" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="24">
-        <v>1</v>
-      </c>
-      <c r="K218" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J218" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K218" s="24">
+        <v>1</v>
+      </c>
+      <c r="L218" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L218" s="43" t="s">
+      <c r="M218" s="43" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>586</v>
       </c>
@@ -9748,19 +10406,22 @@
         <v>593</v>
       </c>
       <c r="I219" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="24">
-        <v>1</v>
-      </c>
-      <c r="K219" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J219" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K219" s="24">
+        <v>1</v>
+      </c>
+      <c r="L219" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L219" s="43" t="s">
+      <c r="M219" s="43" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>601</v>
       </c>
@@ -9782,14 +10443,17 @@
       <c r="I220" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K220" s="24" t="s">
+      <c r="J220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="L220" s="5" t="s">
+      <c r="M220" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>606</v>
       </c>
@@ -9809,16 +10473,19 @@
         <v>608</v>
       </c>
       <c r="I221" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K221" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J221" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="L221" s="5" t="s">
+      <c r="M221" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>607</v>
       </c>
@@ -9838,16 +10505,19 @@
         <v>608</v>
       </c>
       <c r="I222" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K222" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J222" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="L222" s="5" t="s">
+      <c r="M222" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>617</v>
       </c>
@@ -9869,17 +10539,20 @@
       <c r="I223" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J223" s="24">
+      <c r="J223" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K223" s="24">
         <v>3</v>
       </c>
-      <c r="K223" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L223" s="5" t="s">
+      <c r="L223" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M223" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>618</v>
       </c>
@@ -9901,17 +10574,20 @@
       <c r="I224" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J224" s="24">
+      <c r="J224" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K224" s="24">
         <v>3</v>
       </c>
-      <c r="K224" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L224" s="5" t="s">
+      <c r="L224" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M224" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>621</v>
       </c>
@@ -9931,19 +10607,22 @@
         <v>615</v>
       </c>
       <c r="I225" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="24">
+        <v>0</v>
+      </c>
+      <c r="J225" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K225" s="24">
         <v>3</v>
       </c>
-      <c r="K225" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L225" s="5" t="s">
+      <c r="L225" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M225" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>621</v>
       </c>
@@ -9963,19 +10642,22 @@
         <v>615</v>
       </c>
       <c r="I226" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" s="24">
+        <v>0</v>
+      </c>
+      <c r="J226" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K226" s="24">
         <v>3</v>
       </c>
-      <c r="K226" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L226" s="5" t="s">
+      <c r="L226" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M226" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>528</v>
       </c>
@@ -9997,17 +10679,20 @@
       <c r="I227" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J227" s="24">
+      <c r="J227" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K227" s="24">
         <v>3</v>
       </c>
-      <c r="K227" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L227" s="5" t="s">
+      <c r="L227" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M227" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>622</v>
       </c>
@@ -10029,17 +10714,20 @@
       <c r="I228" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J228" s="24">
+      <c r="J228" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K228" s="24">
         <v>3</v>
       </c>
-      <c r="K228" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L228" s="5" t="s">
+      <c r="L228" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M228" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>622</v>
       </c>
@@ -10061,17 +10749,20 @@
       <c r="I229" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J229" s="24">
+      <c r="J229" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K229" s="24">
         <v>3</v>
       </c>
-      <c r="K229" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L229" s="5" t="s">
+      <c r="L229" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M229" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>624</v>
       </c>
@@ -10091,19 +10782,22 @@
         <v>632</v>
       </c>
       <c r="I230" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="24">
+        <v>0</v>
+      </c>
+      <c r="J230" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K230" s="24">
         <v>3</v>
       </c>
-      <c r="K230" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L230" s="5" t="s">
+      <c r="L230" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M230" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>626</v>
       </c>
@@ -10123,19 +10817,22 @@
         <v>632</v>
       </c>
       <c r="I231" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="24">
+        <v>0</v>
+      </c>
+      <c r="J231" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" s="24">
         <v>3</v>
       </c>
-      <c r="K231" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L231" s="5" t="s">
+      <c r="L231" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M231" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>628</v>
       </c>
@@ -10157,17 +10854,20 @@
       <c r="I232" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J232" s="24">
+      <c r="J232" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K232" s="24">
         <v>3</v>
       </c>
-      <c r="K232" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L232" s="5" t="s">
+      <c r="L232" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M232" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>630</v>
       </c>
@@ -10189,17 +10889,20 @@
       <c r="I233" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J233" s="24">
+      <c r="J233" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K233" s="24">
         <v>3</v>
       </c>
-      <c r="K233" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L233" s="5" t="s">
+      <c r="L233" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M233" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>624</v>
       </c>
@@ -10219,19 +10922,22 @@
         <v>632</v>
       </c>
       <c r="I234" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="24">
+        <v>0</v>
+      </c>
+      <c r="J234" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K234" s="24">
         <v>3</v>
       </c>
-      <c r="K234" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L234" s="5" t="s">
+      <c r="L234" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M234" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>626</v>
       </c>
@@ -10251,19 +10957,22 @@
         <v>632</v>
       </c>
       <c r="I235" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="24">
+        <v>0</v>
+      </c>
+      <c r="J235" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K235" s="24">
         <v>3</v>
       </c>
-      <c r="K235" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L235" s="5" t="s">
+      <c r="L235" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M235" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>628</v>
       </c>
@@ -10285,17 +10994,20 @@
       <c r="I236" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J236" s="24">
+      <c r="J236" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K236" s="24">
         <v>3</v>
       </c>
-      <c r="K236" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L236" s="5" t="s">
+      <c r="L236" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M236" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>630</v>
       </c>
@@ -10317,17 +11029,20 @@
       <c r="I237" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J237" s="24">
+      <c r="J237" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K237" s="24">
         <v>3</v>
       </c>
-      <c r="K237" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L237" s="5" t="s">
+      <c r="L237" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M237" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>635</v>
       </c>
@@ -10349,14 +11064,17 @@
       <c r="I238" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K238" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L238" s="7" t="s">
+      <c r="J238" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M238" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>636</v>
       </c>
@@ -10378,14 +11096,17 @@
       <c r="I239" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K239" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L239" s="7" t="s">
+      <c r="J239" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M239" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>637</v>
       </c>
@@ -10407,14 +11128,17 @@
       <c r="I240" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K240" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L240" s="7" t="s">
+      <c r="J240" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M240" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>638</v>
       </c>
@@ -10436,14 +11160,17 @@
       <c r="I241" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K241" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L241" s="7" t="s">
+      <c r="J241" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M241" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>639</v>
       </c>
@@ -10465,14 +11192,17 @@
       <c r="I242" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K242" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L242" s="7" t="s">
+      <c r="J242" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M242" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>640</v>
       </c>
@@ -10494,14 +11224,17 @@
       <c r="I243" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K243" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L243" s="7" t="s">
+      <c r="J243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M243" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>650</v>
       </c>
@@ -10521,19 +11254,22 @@
         <v>651</v>
       </c>
       <c r="I244" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" s="24">
+        <v>0</v>
+      </c>
+      <c r="J244" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K244" s="24">
         <v>3</v>
       </c>
-      <c r="K244" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L244" s="5" t="s">
+      <c r="L244" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M244" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>649</v>
       </c>
@@ -10553,19 +11289,22 @@
         <v>651</v>
       </c>
       <c r="I245" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" s="24">
+        <v>0</v>
+      </c>
+      <c r="J245" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K245" s="24">
         <v>3</v>
       </c>
-      <c r="K245" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L245" s="5" t="s">
+      <c r="L245" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M245" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>661</v>
       </c>
@@ -10585,19 +11324,22 @@
         <v>669</v>
       </c>
       <c r="I246" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" s="24">
+        <v>0</v>
+      </c>
+      <c r="J246" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K246" s="24">
         <v>3</v>
       </c>
-      <c r="K246" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L246" s="5" t="s">
+      <c r="L246" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M246" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>662</v>
       </c>
@@ -10617,19 +11359,22 @@
         <v>669</v>
       </c>
       <c r="I247" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" s="24">
+        <v>0</v>
+      </c>
+      <c r="J247" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K247" s="24">
         <v>3</v>
       </c>
-      <c r="K247" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L247" s="5" t="s">
+      <c r="L247" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M247" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>663</v>
       </c>
@@ -10649,19 +11394,22 @@
         <v>669</v>
       </c>
       <c r="I248" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="24">
+        <v>0</v>
+      </c>
+      <c r="J248" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K248" s="24">
         <v>3</v>
       </c>
-      <c r="K248" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L248" s="5" t="s">
+      <c r="L248" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M248" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>664</v>
       </c>
@@ -10681,19 +11429,22 @@
         <v>669</v>
       </c>
       <c r="I249" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="24">
+        <v>0</v>
+      </c>
+      <c r="J249" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K249" s="24">
         <v>3</v>
       </c>
-      <c r="K249" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L249" s="5" t="s">
+      <c r="L249" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M249" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>661</v>
       </c>
@@ -10713,19 +11464,22 @@
         <v>670</v>
       </c>
       <c r="I250" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="24">
+        <v>0</v>
+      </c>
+      <c r="J250" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K250" s="24">
         <v>3</v>
       </c>
-      <c r="K250" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L250" s="5" t="s">
+      <c r="L250" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M250" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>662</v>
       </c>
@@ -10745,19 +11499,22 @@
         <v>670</v>
       </c>
       <c r="I251" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="24">
+        <v>0</v>
+      </c>
+      <c r="J251" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K251" s="24">
         <v>3</v>
       </c>
-      <c r="K251" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L251" s="5" t="s">
+      <c r="L251" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M251" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>663</v>
       </c>
@@ -10777,19 +11534,22 @@
         <v>670</v>
       </c>
       <c r="I252" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="24">
+        <v>0</v>
+      </c>
+      <c r="J252" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K252" s="24">
         <v>3</v>
       </c>
-      <c r="K252" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L252" s="5" t="s">
+      <c r="L252" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M252" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>664</v>
       </c>
@@ -10809,20 +11569,23 @@
         <v>670</v>
       </c>
       <c r="I253" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="24">
+        <v>0</v>
+      </c>
+      <c r="J253" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K253" s="24">
         <v>3</v>
       </c>
-      <c r="K253" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L253" s="5" t="s">
+      <c r="L253" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M253" s="5" t="s">
         <v>532</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L245" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M253" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
